--- a/Current-conversion-formula.xlsx
+++ b/Current-conversion-formula.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://2m0l1s-my.sharepoint.com/personal/baruaeee_2m0l1s_onmicrosoft_com/Documents/GitRepo/Arduino-Hall-effect-sensor-Proteus-/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_F25DC773A252ABDACC10483FA91D6D645BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{582F7D72-B1C6-4ED9-8821-72AA44C4D4A7}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_F25DC773A252ABDACC10483FA91D6D645BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0BD7BCD2-8651-4104-8FE1-4EDA00F0B5C9}"/>
   <bookViews>
     <workbookView xWindow="-19320" yWindow="-3960" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -187,7 +187,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Volts</c:v>
+                  <c:v>Curr.</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1388,17 +1388,17 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
